--- a/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>TPCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43002</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42911</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E8" s="3">
         <v>236000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>250300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>244500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>283500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>255800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>491400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>236200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>483400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E10" s="3">
         <v>223400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>235200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>228400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>265700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>238800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>460000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>223800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>278100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>223200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>455000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,32 +946,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>7700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -968,46 +987,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E15" s="3">
         <v>11300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>255200</v>
+      </c>
+      <c r="E17" s="3">
         <v>226700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>242200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>251900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>287400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>265800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>531400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>269400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>290300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>238300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>478000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>239700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>18600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
         <v>6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5700</v>
+        <v>-16900</v>
       </c>
       <c r="E27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,46 +1510,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-12800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>294300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>27900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>14700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>16200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="E33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>250400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="E35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>250400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43002</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42911</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E41" s="3">
         <v>56500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>97600</v>
       </c>
       <c r="H41" s="3">
         <v>97600</v>
       </c>
       <c r="I41" s="3">
+        <v>97600</v>
+      </c>
+      <c r="J41" s="3">
         <v>214500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>162700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>185200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>174200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +1959,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E43" s="3">
         <v>103700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>145500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>136000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>133100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>153500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>169800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>159200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>161300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E44" s="3">
         <v>5700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>21500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>193700</v>
+      </c>
+      <c r="E46" s="3">
         <v>187500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>270800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>283900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>381500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>356400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>406700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>393600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>357800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>354500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E48" s="3">
         <v>229000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>238700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>246500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>145000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>146100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>109800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>94500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>104700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>207600</v>
+      </c>
+      <c r="E49" s="3">
         <v>226200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>228300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>233100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>236500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>243600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>252000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>387300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>197200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>296200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>299300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>304200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E52" s="3">
         <v>59000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>73000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>209500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>77400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>682300</v>
+      </c>
+      <c r="E54" s="3">
         <v>701700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>760600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>792300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>726600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>747600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>850300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>913200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>865100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>868500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>795700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E57" s="3">
         <v>41000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>85600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>75300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>70400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,7 +2541,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -2417,106 +2550,115 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E59" s="3">
         <v>143800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>187200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>144900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>139600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>167300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>242000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>173700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>158500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>143900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E60" s="3">
         <v>184900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>232400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>210500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>233700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>328300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>257600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>260900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>250600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>228200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E61" s="3">
         <v>6800</v>
@@ -2534,60 +2676,66 @@
         <v>6800</v>
       </c>
       <c r="J61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K61" s="3">
         <v>327000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>331100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>340500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>340100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>344300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E62" s="3">
         <v>154600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>160800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>174900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>94200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>94700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>198200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>204000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>209000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>162600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>397500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>438300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>419800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>353300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>374000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>471400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>824800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>796000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>730800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E72" s="3">
         <v>150900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>172900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>225900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>232400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>230000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>233800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284800</v>
+      </c>
+      <c r="E76" s="3">
         <v>301200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>322300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>372500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>373300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>373600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>378900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43002</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42911</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="E81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>250400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>14400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-97900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>54900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>382600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,13 +3913,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3708,19 +3941,22 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-354300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-67900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-115600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>71800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TPCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43002</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42911</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>216500</v>
+      </c>
+      <c r="F8" s="3">
         <v>252300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>236000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>250300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>244500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>283500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>255800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>491400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>238400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>295900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>236200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>483400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F9" s="3">
         <v>13000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>17800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>17000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>31400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>17800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>13000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>28400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>205800</v>
+      </c>
+      <c r="F10" s="3">
         <v>239300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>223400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>235200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>228400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>265700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>238800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>460000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>223800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>278100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>223200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>455000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,38 +983,44 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F14" s="3">
         <v>14500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -990,49 +1030,61 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F15" s="3">
         <v>12300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>11600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>12100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>15700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>12200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>25400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>12400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>12100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>23000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>278500</v>
+      </c>
+      <c r="F17" s="3">
         <v>255200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>226700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>242200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>251900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>287400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>265800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>531400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>269400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>290300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>238300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>478000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>239700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-40000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-31000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-19900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F21" s="3">
         <v>9500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>19500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>15600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-22300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-46100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-34700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-43200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-28100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-43900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-28300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,49 +1629,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>10200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-12800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-700</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-3600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>294300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>27900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-6400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>14700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>16200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>19900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-22000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>250400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-22000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>250400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43002</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42911</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F41" s="3">
         <v>61000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>56500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>102600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>98200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>97600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>97600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>214500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>162700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>185400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>185200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>174200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,172 +2142,202 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F43" s="3">
         <v>112800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>103700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>112000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>111600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>145500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>136000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>133100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>153500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>122500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>169800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>159200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>161300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G44" s="3">
         <v>5700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>9300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>9600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>11400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>9200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>21500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>39000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>26900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>117000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>29500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>17700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>171800</v>
+      </c>
+      <c r="F46" s="3">
         <v>193700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>187500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>240700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>239700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>270800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>283900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>381500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>356400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>406700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>393600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>357800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>354500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2377,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>171800</v>
+      </c>
+      <c r="F48" s="3">
         <v>223400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>229000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>238700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>246500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>145000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>146100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>144700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>109800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>94500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>104700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>60500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>196000</v>
+      </c>
+      <c r="F49" s="3">
         <v>207600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>226200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>228300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>233100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>236500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>243600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>252000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>387300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>197200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>296200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>299300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>304200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F52" s="3">
         <v>57700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>59000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>52800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>73000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>74400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>73900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>72100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>59700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>209500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>74100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>78100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>77400</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>599600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>603700</v>
+      </c>
+      <c r="F54" s="3">
         <v>682300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>701700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>760600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>792300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>726600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>747600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>850300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>913200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>865100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>868500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>795700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,183 +2748,209 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F57" s="3">
         <v>46500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>41000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>45100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>53100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>70600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>65900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>85600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>75300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>65700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>70400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>62500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>21800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>43300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>21700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>21800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F59" s="3">
         <v>128800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>143800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>187200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>144900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>139600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>167300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>242000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>160500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>173700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>158500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>143900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>164800</v>
+      </c>
+      <c r="F60" s="3">
         <v>175400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>184900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>232400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>198400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>210500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>233700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>328300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>257600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>260900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>250600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>228200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>6900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>6800</v>
       </c>
       <c r="G61" s="3">
         <v>6800</v>
@@ -2679,63 +2965,75 @@
         <v>6800</v>
       </c>
       <c r="K61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="M61" s="3">
         <v>327000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>331100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>340500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>340100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>344300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F62" s="3">
         <v>151700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>154600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>160800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>174900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>96200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>94200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>94700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>198200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>204000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>209000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>162600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>372800</v>
+      </c>
+      <c r="F66" s="3">
         <v>397500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>438300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>419800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>353300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>374000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>471400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>824800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>796000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>730800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F72" s="3">
         <v>135000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>150900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>172900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>225900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>232400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>230000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>233800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>231600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>230900</v>
+      </c>
+      <c r="F76" s="3">
         <v>284800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>301200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>322300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>372500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>373300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>373600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>378900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>88400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>69200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>68400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>64900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43002</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42911</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-22000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>250400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F83" s="3">
         <v>12300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>11600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>15700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>11600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>19800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-97900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>43600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>54900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-18500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-30400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-18900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>382600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-42300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-11100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,20 +4380,22 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-9000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3944,19 +4412,25 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-12600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-55400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-354300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-67900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-46100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-115600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>71800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-26900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-24100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-37500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TPCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43002</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42911</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E8" s="3">
         <v>183100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>216500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>252300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>236000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>250300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>244500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>283500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>255800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>491400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>238400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>295900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>236200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>483400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E10" s="3">
         <v>175700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>205800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>239300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>223400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>235200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>228400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>265700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>238800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>460000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>223800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>278100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>223200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>455000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,41 +1006,44 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>51000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>7700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1036,55 +1056,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E15" s="3">
         <v>9900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>15700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E17" s="3">
         <v>183800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>278500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>255200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>226700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>242200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>251900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>287400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>265800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>531400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>269400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>290300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>238300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>478000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>239700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-31000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-52200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,55 +1693,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>10200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-12800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-700</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>294300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>27900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>14700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>16200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>250400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>250400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43002</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42911</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E41" s="3">
         <v>80500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>97600</v>
       </c>
       <c r="K41" s="3">
         <v>97600</v>
       </c>
       <c r="L41" s="3">
+        <v>97600</v>
+      </c>
+      <c r="M41" s="3">
         <v>214500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>162700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>174200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E43" s="3">
         <v>77800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>103700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>112000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>111600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>145500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>136000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>133100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>153500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>122500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>169800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>159200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>161300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4800</v>
       </c>
       <c r="F44" s="3">
         <v>4800</v>
       </c>
       <c r="G44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H44" s="3">
         <v>5700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E45" s="3">
         <v>23400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>193700</v>
+      </c>
+      <c r="E46" s="3">
         <v>185400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>171800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>193700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>187500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>240700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>270800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>283900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>381500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>356400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>406700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>393600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>357800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>354500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E48" s="3">
         <v>162000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>229000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>238700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>246500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>145000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>146100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>144700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>94500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>104700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E49" s="3">
         <v>193900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>196000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>207600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>226200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>228300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>233100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>236500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>243600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>252000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>387300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>197200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>296200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>299300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>304200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E52" s="3">
         <v>58200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>64100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>59000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>72100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>209500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>581500</v>
+      </c>
+      <c r="E54" s="3">
         <v>599600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>603700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>682300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>701700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>760600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>792300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>726600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>747600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>850300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>913200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>865100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>868500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>795700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E57" s="3">
         <v>36000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>70600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>85600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>75300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>70400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>62500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,10 +2940,10 @@
         <v>7000</v>
       </c>
       <c r="E58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3">
         <v>6900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2818,7 +2952,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -2827,119 +2961,128 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E59" s="3">
         <v>124400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>143800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>187200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>144900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>167300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>242000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>173700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>158500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>143900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E60" s="3">
         <v>167500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>164800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>175400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>184900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>232400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>198400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>210500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>233700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>328300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>257600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>260900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>250600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>228200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,10 +3093,10 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>6900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>6800</v>
       </c>
       <c r="H61" s="3">
         <v>6800</v>
@@ -2971,69 +3114,75 @@
         <v>6800</v>
       </c>
       <c r="M61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N61" s="3">
         <v>327000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>331100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>340500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>340100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>344300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E62" s="3">
         <v>140800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>148000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>151700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>154600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>160800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>174900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>94200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>94700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>198200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>204000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>209000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>162600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>342800</v>
+      </c>
+      <c r="E66" s="3">
         <v>368000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>372800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>397500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>438300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>419800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>353300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>374000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>471400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>824800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>796000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>730800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E72" s="3">
         <v>79400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>80000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>135000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>150900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>172900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>225900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>232400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>230000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>233800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E76" s="3">
         <v>231600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>230900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>284800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>301200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>322300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>372500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>373300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>373600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>378900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>68400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43002</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42911</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>250400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>9900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E89" s="3">
         <v>33100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-97900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>382600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4391,14 +4625,14 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-9100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4418,19 +4652,22 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-354300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-67900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>27900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-115600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TPCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TPCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43002</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42911</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E8" s="3">
         <v>188700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>183100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>216500</v>
       </c>
-      <c r="G8" s="3">
-        <v>252300</v>
-      </c>
       <c r="H8" s="3">
+        <v>214900</v>
+      </c>
+      <c r="I8" s="3">
         <v>236000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>250300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>244500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>283500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>255800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>491400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>238400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>295900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>236200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>483400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="3">
         <v>181000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>175700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>205800</v>
       </c>
-      <c r="G10" s="3">
-        <v>239300</v>
-      </c>
       <c r="H10" s="3">
+        <v>201900</v>
+      </c>
+      <c r="I10" s="3">
         <v>223400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>235200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>228400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>238800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>460000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>223800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>278100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>223200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>455000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,44 +1025,47 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>51000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1059,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E15" s="3">
         <v>9400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9500</v>
       </c>
-      <c r="G15" s="3">
-        <v>12300</v>
-      </c>
       <c r="H15" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I15" s="3">
         <v>11300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E17" s="3">
         <v>181300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>183800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>278500</v>
       </c>
-      <c r="G17" s="3">
-        <v>255200</v>
-      </c>
       <c r="H17" s="3">
+        <v>230100</v>
+      </c>
+      <c r="I17" s="3">
         <v>226700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>242200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>287400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>531400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>269400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>290300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>238300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>478000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>239700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="I18" s="3">
         <v>9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R21" s="3">
         <v>9300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-52200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>19500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>15600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-22300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>13000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>9300</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,17 +1399,17 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="I23" s="3">
         <v>7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17700</v>
       </c>
-      <c r="G24" s="3">
-        <v>1600</v>
-      </c>
       <c r="H24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-28100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>10200</v>
-      </c>
       <c r="H29" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I29" s="3">
         <v>-12800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>294300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>27900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>14700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>16200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>250400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>250400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43002</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42911</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E41" s="3">
         <v>90000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48800</v>
       </c>
-      <c r="G41" s="3">
-        <v>61000</v>
-      </c>
       <c r="H41" s="3">
+        <v>54800</v>
+      </c>
+      <c r="I41" s="3">
         <v>56500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>97600</v>
       </c>
       <c r="L41" s="3">
         <v>97600</v>
       </c>
       <c r="M41" s="3">
+        <v>97600</v>
+      </c>
+      <c r="N41" s="3">
         <v>214500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>185200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>174200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,231 +2330,246 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E43" s="3">
         <v>75900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94300</v>
       </c>
-      <c r="G43" s="3">
-        <v>112800</v>
-      </c>
       <c r="H43" s="3">
+        <v>99300</v>
+      </c>
+      <c r="I43" s="3">
         <v>103700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>112000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>111600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>145500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>136000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>133100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>153500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>122500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>169800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>159200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>161300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4800</v>
       </c>
       <c r="G44" s="3">
         <v>4800</v>
       </c>
       <c r="H44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I44" s="3">
         <v>5700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E45" s="3">
         <v>24700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23900</v>
       </c>
-      <c r="G45" s="3">
-        <v>15100</v>
-      </c>
       <c r="H45" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I45" s="3">
         <v>21500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>117000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E46" s="3">
         <v>193700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>185400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>171800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>193700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>187500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>240700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>283900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>381500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>356400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>406700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>393600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>357800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>354500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+        <v>11400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E48" s="3">
         <v>141500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>162000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>229000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>238700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>246500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>145000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>146100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>144700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>109800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>94500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>104700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E49" s="3">
         <v>190800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>193900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>196000</v>
       </c>
-      <c r="G49" s="3">
-        <v>207600</v>
-      </c>
       <c r="H49" s="3">
+        <v>112900</v>
+      </c>
+      <c r="I49" s="3">
         <v>226200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>228300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>233100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>236500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>243600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>252000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>387300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>197200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>296200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>299300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>304200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E52" s="3">
         <v>55500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64100</v>
       </c>
-      <c r="G52" s="3">
-        <v>57700</v>
-      </c>
       <c r="H52" s="3">
+        <v>149700</v>
+      </c>
+      <c r="I52" s="3">
         <v>59000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>72100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>209500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>548200</v>
+      </c>
+      <c r="E54" s="3">
         <v>581500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>599600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>603700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>682300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>701700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>760600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>792300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>726600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>747600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>850300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>913200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>865100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>868500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>795700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,72 +3010,76 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E57" s="3">
         <v>32500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37500</v>
       </c>
-      <c r="G57" s="3">
-        <v>46500</v>
-      </c>
       <c r="H57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="I57" s="3">
         <v>41000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>70600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>85600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>75300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>70400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>62500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>7000</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>7000</v>
       </c>
       <c r="F58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G58" s="3">
         <v>6900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2955,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -2964,130 +3097,139 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E59" s="3">
         <v>111000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>124400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>120300</v>
       </c>
-      <c r="G59" s="3">
-        <v>128800</v>
-      </c>
       <c r="H59" s="3">
+        <v>131700</v>
+      </c>
+      <c r="I59" s="3">
         <v>143800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>187200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>144900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>139600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>167300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>242000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>173700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>158500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>143900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E60" s="3">
         <v>150500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>167500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>164800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>175400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>184900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>232400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>198400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>210500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>233700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>328300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>257600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>260900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>250600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>228200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>235800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3096,10 +3238,10 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>6900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6800</v>
       </c>
       <c r="I61" s="3">
         <v>6800</v>
@@ -3117,72 +3259,78 @@
         <v>6800</v>
       </c>
       <c r="N61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="O61" s="3">
         <v>327000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>331100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>340500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>340100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>344300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E62" s="3">
         <v>132800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>140800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>148000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>151700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>154600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>160800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>174900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>94200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>94700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>198200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>204000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>209000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>162600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>165100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>308300</v>
+      </c>
+      <c r="E66" s="3">
         <v>342800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>368000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>372800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>397500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>438300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>419800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>353300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>374000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>471400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>824800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>796000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>730800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E72" s="3">
         <v>86200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>79400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>80000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>135000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>150900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>172900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>225900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>232400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>230000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>233800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E76" s="3">
         <v>238800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>231600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>230900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>284800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>301200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>322300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>372500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>373300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>373600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>378900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>88400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>68400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43002</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42911</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42820</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>250400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E89" s="3">
         <v>12200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
-        <v>21100</v>
-      </c>
       <c r="H89" s="3">
+        <v>25100</v>
+      </c>
+      <c r="I89" s="3">
         <v>14400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-97900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>382600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4628,14 +4861,14 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-9100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4655,19 +4888,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-354300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-67900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12200</v>
       </c>
-      <c r="G102" s="3">
-        <v>4400</v>
-      </c>
       <c r="H102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-46100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-115600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>71800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37500</v>
       </c>
     </row>
